--- a/New_ROM/Data Files/IntactROM.xlsx
+++ b/New_ROM/Data Files/IntactROM.xlsx
@@ -1,37 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="4N-4P" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="4N-4P" sheetId="1" r:id="rId1"/>
+    <sheet name="5N-5P" sheetId="2" r:id="rId2"/>
+    <sheet name="6N-6P" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +68,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,87 +384,1762 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>[-2.      -1.9017  -1.80678 -1.70216 -1.60278 -1.50412 -1.4045  -1.3113
- -1.20768 -1.10768 -1.00644 -0.90842 -0.80716 -0.7073  -0.60396 -0.5
- -0.4     -0.3     -0.2      0.       0.1      0.2      0.3      0.4
-  0.5      0.60396  0.7073   0.80716  0.90842  1.00644  1.10768  1.20768
-  1.3113   1.4045   1.50412  1.60278  1.70216  1.80678  1.9017   2.     ]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[-29.48208765 -28.42830367 -27.36374809 -26.09367255 -24.74768009
- -23.27792876 -21.70676389 -20.17100782 -18.42617944 -16.71234809
- -14.96660298 -13.26468915 -11.50164072  -9.77451674  -8.03725141
-  -6.38541408  -4.96137332  -3.73412064  -2.74219892  -1.86544746
-   0.19102527   1.96466081   3.99901622   5.12538249   6.36163634
-   7.42206662   8.17378725   9.05127211  10.63813602  11.25108627
-  12.3028649   13.21386779  14.19557368  14.98247391  15.95959614
-  16.79508319  17.67577662  18.53595816  19.44317953  20.14310477]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.89978315 0.94745324 1.00506988 1.06402151 1.10589326 1.09712128
- 1.05686526 0.99493426 0.97745331 1.02015013 1.08463653 1.14491742
- 1.20779381 1.24485272 1.25734893 1.25536649 1.24532827 1.22756658
- 1.20405812 1.04448937 1.36257262 1.39609066 1.43557318 1.48288803
- 1.5595326  1.63248731 1.68217994 1.73595203 1.82175819 1.85144886
- 1.9036797  1.94957362 1.99859015 2.0371273  2.08243107 2.11871649
- 2.15387318 2.18697868 2.220554   2.24556934]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[2.02748396 2.01037544 2.00193004 1.98947394 1.97504686 1.91799745
- 1.82886241 1.72638318 1.63884669 1.61587108 1.6050651  1.60519115
- 1.61072019 1.58745237 1.53711803 1.47290092 1.39373534 1.3171137
- 1.26174878 1.14095782 1.29339324 1.23800541 1.1654002  1.13025497
- 1.10428279 1.07772047 1.05294005 1.0240687  0.984357   0.97264001
- 0.9550674  0.94171748 0.92354899 0.91058868 0.90141563 0.89421355
- 0.88343621 0.871152   0.85834066 0.84788991]</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>-2</v>
+      </c>
+      <c r="B2">
+        <v>-29.48208765121994</v>
+      </c>
+      <c r="C2">
+        <v>0.8997831540356835</v>
+      </c>
+      <c r="D2">
+        <v>2.027483959797562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>-1.9017</v>
+      </c>
+      <c r="B3">
+        <v>-28.42830367441533</v>
+      </c>
+      <c r="C3">
+        <v>0.9474532425905681</v>
+      </c>
+      <c r="D3">
+        <v>2.010375440034955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>-1.80678</v>
+      </c>
+      <c r="B4">
+        <v>-27.36374809106226</v>
+      </c>
+      <c r="C4">
+        <v>1.005069878468924</v>
+      </c>
+      <c r="D4">
+        <v>2.001930042134727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>-1.70216</v>
+      </c>
+      <c r="B5">
+        <v>-26.09367254659577</v>
+      </c>
+      <c r="C5">
+        <v>1.064021506009934</v>
+      </c>
+      <c r="D5">
+        <v>1.989473939668583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>-1.60278</v>
+      </c>
+      <c r="B6">
+        <v>-24.74768009427444</v>
+      </c>
+      <c r="C6">
+        <v>1.105893261678095</v>
+      </c>
+      <c r="D6">
+        <v>1.97504686238719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>-1.50412</v>
+      </c>
+      <c r="B7">
+        <v>-23.27792875820485</v>
+      </c>
+      <c r="C7">
+        <v>1.097121277834642</v>
+      </c>
+      <c r="D7">
+        <v>1.917997454726013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>-1.4045</v>
+      </c>
+      <c r="B8">
+        <v>-21.70676389239711</v>
+      </c>
+      <c r="C8">
+        <v>1.05686526314875</v>
+      </c>
+      <c r="D8">
+        <v>1.828862410537511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>-1.3113</v>
+      </c>
+      <c r="B9">
+        <v>-20.17100781832844</v>
+      </c>
+      <c r="C9">
+        <v>0.9949342550730593</v>
+      </c>
+      <c r="D9">
+        <v>1.726383179300412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>-1.20768</v>
+      </c>
+      <c r="B10">
+        <v>-18.42617944481655</v>
+      </c>
+      <c r="C10">
+        <v>0.9774533127436179</v>
+      </c>
+      <c r="D10">
+        <v>1.638846687360325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>-1.10768</v>
+      </c>
+      <c r="B11">
+        <v>-16.71234808802123</v>
+      </c>
+      <c r="C11">
+        <v>1.020150127636767</v>
+      </c>
+      <c r="D11">
+        <v>1.615871079775579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>-1.00644</v>
+      </c>
+      <c r="B12">
+        <v>-14.96660298203712</v>
+      </c>
+      <c r="C12">
+        <v>1.084636527478741</v>
+      </c>
+      <c r="D12">
+        <v>1.605065095759412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>-0.9084199999999996</v>
+      </c>
+      <c r="B13">
+        <v>-13.26468914738053</v>
+      </c>
+      <c r="C13">
+        <v>1.144917417104455</v>
+      </c>
+      <c r="D13">
+        <v>1.60519114647434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>-0.8071599999999997</v>
+      </c>
+      <c r="B14">
+        <v>-11.50164071598347</v>
+      </c>
+      <c r="C14">
+        <v>1.207793805542112</v>
+      </c>
+      <c r="D14">
+        <v>1.610720189197353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>-0.7073</v>
+      </c>
+      <c r="B15">
+        <v>-9.774516738341118</v>
+      </c>
+      <c r="C15">
+        <v>1.244852715731173</v>
+      </c>
+      <c r="D15">
+        <v>1.58745237313709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>-0.6039599999999998</v>
+      </c>
+      <c r="B16">
+        <v>-8.037251407724948</v>
+      </c>
+      <c r="C16">
+        <v>1.257348925242976</v>
+      </c>
+      <c r="D16">
+        <v>1.537118030834847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>-0.5</v>
+      </c>
+      <c r="B17">
+        <v>-6.385414084362785</v>
+      </c>
+      <c r="C17">
+        <v>1.255366491271824</v>
+      </c>
+      <c r="D17">
+        <v>1.472900921156585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="B18">
+        <v>-4.961373321188735</v>
+      </c>
+      <c r="C18">
+        <v>1.245328270701132</v>
+      </c>
+      <c r="D18">
+        <v>1.393735342603359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="B19">
+        <v>-3.734120642330317</v>
+      </c>
+      <c r="C19">
+        <v>1.227566579052076</v>
+      </c>
+      <c r="D19">
+        <v>1.317113696660514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="B20">
+        <v>-2.742198918665982</v>
+      </c>
+      <c r="C20">
+        <v>1.204058120717858</v>
+      </c>
+      <c r="D20">
+        <v>1.261748784917022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>-1.865447455684781</v>
+      </c>
+      <c r="C21">
+        <v>1.044489374773924</v>
+      </c>
+      <c r="D21">
+        <v>1.140957822547542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="B22">
+        <v>0.1910252676702632</v>
+      </c>
+      <c r="C22">
+        <v>1.362572624318752</v>
+      </c>
+      <c r="D22">
+        <v>1.293393243942097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="B23">
+        <v>1.964660813205747</v>
+      </c>
+      <c r="C23">
+        <v>1.396090655333905</v>
+      </c>
+      <c r="D23">
+        <v>1.238005413886801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="B24">
+        <v>3.99901621975315</v>
+      </c>
+      <c r="C24">
+        <v>1.43557317699637</v>
+      </c>
+      <c r="D24">
+        <v>1.165400202087823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="B25">
+        <v>5.125382490044934</v>
+      </c>
+      <c r="C25">
+        <v>1.482888031718274</v>
+      </c>
+      <c r="D25">
+        <v>1.130254970934498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>0.5</v>
+      </c>
+      <c r="B26">
+        <v>6.361636335864856</v>
+      </c>
+      <c r="C26">
+        <v>1.559532595972924</v>
+      </c>
+      <c r="D26">
+        <v>1.104282794081218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>0.6039599999999998</v>
+      </c>
+      <c r="B27">
+        <v>7.422066623092983</v>
+      </c>
+      <c r="C27">
+        <v>1.632487312026932</v>
+      </c>
+      <c r="D27">
+        <v>1.077720470698953</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>0.7073</v>
+      </c>
+      <c r="B28">
+        <v>8.173787250304624</v>
+      </c>
+      <c r="C28">
+        <v>1.682179941598628</v>
+      </c>
+      <c r="D28">
+        <v>1.052940046059545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>0.8071599999999997</v>
+      </c>
+      <c r="B29">
+        <v>9.05127211354748</v>
+      </c>
+      <c r="C29">
+        <v>1.735952030671656</v>
+      </c>
+      <c r="D29">
+        <v>1.024068702762903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>0.9084199999999996</v>
+      </c>
+      <c r="B30">
+        <v>10.63813602294181</v>
+      </c>
+      <c r="C30">
+        <v>1.821758190070448</v>
+      </c>
+      <c r="D30">
+        <v>0.9843569979823855</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1.00644</v>
+      </c>
+      <c r="B31">
+        <v>11.25108627217276</v>
+      </c>
+      <c r="C31">
+        <v>1.851448863014127</v>
+      </c>
+      <c r="D31">
+        <v>0.9726400110719601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1.10768</v>
+      </c>
+      <c r="B32">
+        <v>12.30286489669441</v>
+      </c>
+      <c r="C32">
+        <v>1.903679695618253</v>
+      </c>
+      <c r="D32">
+        <v>0.9550673954952978</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>1.20768</v>
+      </c>
+      <c r="B33">
+        <v>13.21386779095242</v>
+      </c>
+      <c r="C33">
+        <v>1.949573615008232</v>
+      </c>
+      <c r="D33">
+        <v>0.9417174788687496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>1.3113</v>
+      </c>
+      <c r="B34">
+        <v>14.19557367712958</v>
+      </c>
+      <c r="C34">
+        <v>1.998590154381674</v>
+      </c>
+      <c r="D34">
+        <v>0.9235489871851511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>1.4045</v>
+      </c>
+      <c r="B35">
+        <v>14.98247391296225</v>
+      </c>
+      <c r="C35">
+        <v>2.037127295682172</v>
+      </c>
+      <c r="D35">
+        <v>0.910588681859292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>1.50412</v>
+      </c>
+      <c r="B36">
+        <v>15.95959613677836</v>
+      </c>
+      <c r="C36">
+        <v>2.082431068543167</v>
+      </c>
+      <c r="D36">
+        <v>0.9014156275592475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>1.60278</v>
+      </c>
+      <c r="B37">
+        <v>16.79508319363812</v>
+      </c>
+      <c r="C37">
+        <v>2.118716485708802</v>
+      </c>
+      <c r="D37">
+        <v>0.894213548074453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1.70216</v>
+      </c>
+      <c r="B38">
+        <v>17.67577662053371</v>
+      </c>
+      <c r="C38">
+        <v>2.153873176018029</v>
+      </c>
+      <c r="D38">
+        <v>0.8834362119480422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>1.80678</v>
+      </c>
+      <c r="B39">
+        <v>18.53595815836362</v>
+      </c>
+      <c r="C39">
+        <v>2.186978677420688</v>
+      </c>
+      <c r="D39">
+        <v>0.8711519968204373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>1.9017</v>
+      </c>
+      <c r="B40">
+        <v>19.44317953117376</v>
+      </c>
+      <c r="C40">
+        <v>2.220554004215354</v>
+      </c>
+      <c r="D40">
+        <v>0.8583406605213122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>20.14310477370557</v>
+      </c>
+      <c r="C41">
+        <v>2.245569341550766</v>
+      </c>
+      <c r="D41">
+        <v>0.8478899103381259</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>-2</v>
+      </c>
+      <c r="B2">
+        <v>-9.505684955149622</v>
+      </c>
+      <c r="C2">
+        <v>-13.5573171158233</v>
+      </c>
+      <c r="D2">
+        <v>-8.498724765007383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>-1.9017</v>
+      </c>
+      <c r="B3">
+        <v>-9.306410234003122</v>
+      </c>
+      <c r="C3">
+        <v>-13.27513540172137</v>
+      </c>
+      <c r="D3">
+        <v>-8.351474611658761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>-1.80678</v>
+      </c>
+      <c r="B4">
+        <v>-8.961031275098263</v>
+      </c>
+      <c r="C4">
+        <v>-12.78336572616059</v>
+      </c>
+      <c r="D4">
+        <v>-8.101951491879289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>-1.70216</v>
+      </c>
+      <c r="B5">
+        <v>-8.712711366688564</v>
+      </c>
+      <c r="C5">
+        <v>-12.43030913280097</v>
+      </c>
+      <c r="D5">
+        <v>-7.92278758934188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>-1.60278</v>
+      </c>
+      <c r="B6">
+        <v>-8.331064179351921</v>
+      </c>
+      <c r="C6">
+        <v>-11.89579680572343</v>
+      </c>
+      <c r="D6">
+        <v>-7.646048974293691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>-1.50412</v>
+      </c>
+      <c r="B7">
+        <v>-8.009577560504017</v>
+      </c>
+      <c r="C7">
+        <v>-11.43502414687922</v>
+      </c>
+      <c r="D7">
+        <v>-7.41010495425882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>-1.4045</v>
+      </c>
+      <c r="B8">
+        <v>-7.644087782990066</v>
+      </c>
+      <c r="C8">
+        <v>-10.91248663771991</v>
+      </c>
+      <c r="D8">
+        <v>-7.14282014283029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>-1.3113</v>
+      </c>
+      <c r="B9">
+        <v>-7.275274850264354</v>
+      </c>
+      <c r="C9">
+        <v>-10.40828377800478</v>
+      </c>
+      <c r="D9">
+        <v>-6.882754599620409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>-1.20768</v>
+      </c>
+      <c r="B10">
+        <v>-6.911332058797255</v>
+      </c>
+      <c r="C10">
+        <v>-9.940864808737057</v>
+      </c>
+      <c r="D10">
+        <v>-6.635752494139511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>-1.10768</v>
+      </c>
+      <c r="B11">
+        <v>-6.333274939289768</v>
+      </c>
+      <c r="C11">
+        <v>-9.21910987421076</v>
+      </c>
+      <c r="D11">
+        <v>-6.229410825832731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>-1.00644</v>
+      </c>
+      <c r="B12">
+        <v>-5.877888083719789</v>
+      </c>
+      <c r="C12">
+        <v>-8.678466898725315</v>
+      </c>
+      <c r="D12">
+        <v>-5.920357391139166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>-0.9084199999999996</v>
+      </c>
+      <c r="B13">
+        <v>-4.960892050924712</v>
+      </c>
+      <c r="C13">
+        <v>-7.641355993759011</v>
+      </c>
+      <c r="D13">
+        <v>-5.312368956414044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>-0.8071599999999997</v>
+      </c>
+      <c r="B14">
+        <v>-4.238266220549815</v>
+      </c>
+      <c r="C14">
+        <v>-6.825521389272232</v>
+      </c>
+      <c r="D14">
+        <v>-4.801554163743109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>-0.7073</v>
+      </c>
+      <c r="B15">
+        <v>-3.347276742075726</v>
+      </c>
+      <c r="C15">
+        <v>-5.812245528583371</v>
+      </c>
+      <c r="D15">
+        <v>-4.14470388824923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>-0.6039599999999998</v>
+      </c>
+      <c r="B16">
+        <v>-2.617540505463256</v>
+      </c>
+      <c r="C16">
+        <v>-4.923863008077127</v>
+      </c>
+      <c r="D16">
+        <v>-3.578071547176652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>-0.5</v>
+      </c>
+      <c r="B17">
+        <v>-2.006899276146678</v>
+      </c>
+      <c r="C17">
+        <v>-4.091194903569405</v>
+      </c>
+      <c r="D17">
+        <v>-3.037422842113256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="B18">
+        <v>-1.414340594844429</v>
+      </c>
+      <c r="C18">
+        <v>-3.101713980112327</v>
+      </c>
+      <c r="D18">
+        <v>-2.35421650804336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="B19">
+        <v>-0.9317153256939319</v>
+      </c>
+      <c r="C19">
+        <v>-1.995366855182415</v>
+      </c>
+      <c r="D19">
+        <v>-1.520757721778357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="B20">
+        <v>-0.75604073612887</v>
+      </c>
+      <c r="C20">
+        <v>-0.816374411407866</v>
+      </c>
+      <c r="D20">
+        <v>-0.5216425129961539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>-1.865447455684781</v>
+      </c>
+      <c r="C21">
+        <v>1.044489374773924</v>
+      </c>
+      <c r="D21">
+        <v>1.140957822547542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="B22">
+        <v>-0.9455006902447792</v>
+      </c>
+      <c r="C22">
+        <v>2.361713616201735</v>
+      </c>
+      <c r="D22">
+        <v>2.189189838317334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="B23">
+        <v>-0.8526700682776833</v>
+      </c>
+      <c r="C23">
+        <v>3.730303523963025</v>
+      </c>
+      <c r="D23">
+        <v>3.363541323951324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="B24">
+        <v>-1.238035751704724</v>
+      </c>
+      <c r="C24">
+        <v>4.909782981863435</v>
+      </c>
+      <c r="D24">
+        <v>4.388872216649736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="B25">
+        <v>-1.86811743901009</v>
+      </c>
+      <c r="C25">
+        <v>6.022484208741348</v>
+      </c>
+      <c r="D25">
+        <v>5.324569591877884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>0.5</v>
+      </c>
+      <c r="B26">
+        <v>-2.578424676789674</v>
+      </c>
+      <c r="C26">
+        <v>7.027165702503247</v>
+      </c>
+      <c r="D26">
+        <v>6.138971801876837</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>0.6039599999999998</v>
+      </c>
+      <c r="B27">
+        <v>-3.490630782417458</v>
+      </c>
+      <c r="C27">
+        <v>8.16150754530325</v>
+      </c>
+      <c r="D27">
+        <v>7.043901343506459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>0.7073</v>
+      </c>
+      <c r="B28">
+        <v>-4.549577108956197</v>
+      </c>
+      <c r="C28">
+        <v>9.407117791917658</v>
+      </c>
+      <c r="D28">
+        <v>7.98968277592891</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>0.8071599999999997</v>
+      </c>
+      <c r="B29">
+        <v>-5.178742063789354</v>
+      </c>
+      <c r="C29">
+        <v>10.14376962911736</v>
+      </c>
+      <c r="D29">
+        <v>8.522934595857167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>0.9084199999999996</v>
+      </c>
+      <c r="B30">
+        <v>-5.964175527666491</v>
+      </c>
+      <c r="C30">
+        <v>11.03500547944335</v>
+      </c>
+      <c r="D30">
+        <v>9.102882476088586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1.00644</v>
+      </c>
+      <c r="B31">
+        <v>-6.651667586043966</v>
+      </c>
+      <c r="C31">
+        <v>11.81067574249146</v>
+      </c>
+      <c r="D31">
+        <v>9.587662066548775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1.10768</v>
+      </c>
+      <c r="B32">
+        <v>-7.330049615478861</v>
+      </c>
+      <c r="C32">
+        <v>12.59178910459331</v>
+      </c>
+      <c r="D32">
+        <v>10.05467996535991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>1.20768</v>
+      </c>
+      <c r="B33">
+        <v>-7.701383562503148</v>
+      </c>
+      <c r="C33">
+        <v>13.0673440745519</v>
+      </c>
+      <c r="D33">
+        <v>10.33703356680038</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>1.3113</v>
+      </c>
+      <c r="B34">
+        <v>-8.028141393066255</v>
+      </c>
+      <c r="C34">
+        <v>13.51774619730424</v>
+      </c>
+      <c r="D34">
+        <v>10.57750395341679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>1.4045</v>
+      </c>
+      <c r="B35">
+        <v>-8.303046543170026</v>
+      </c>
+      <c r="C35">
+        <v>13.94041716277225</v>
+      </c>
+      <c r="D35">
+        <v>10.79419659153526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>1.50412</v>
+      </c>
+      <c r="B36">
+        <v>-8.577665214376228</v>
+      </c>
+      <c r="C36">
+        <v>14.3672134243652</v>
+      </c>
+      <c r="D36">
+        <v>11.01266539881865</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>1.60278</v>
+      </c>
+      <c r="B37">
+        <v>-8.924476567768917</v>
+      </c>
+      <c r="C37">
+        <v>14.89823070889244</v>
+      </c>
+      <c r="D37">
+        <v>11.28585167553702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1.70216</v>
+      </c>
+      <c r="B38">
+        <v>-9.117219570050926</v>
+      </c>
+      <c r="C38">
+        <v>15.18849112790572</v>
+      </c>
+      <c r="D38">
+        <v>11.43453422337347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>1.80678</v>
+      </c>
+      <c r="B39">
+        <v>-9.382040662960392</v>
+      </c>
+      <c r="C39">
+        <v>15.5799358935391</v>
+      </c>
+      <c r="D39">
+        <v>11.63489756433072</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>1.9017</v>
+      </c>
+      <c r="B40">
+        <v>-9.697912295416014</v>
+      </c>
+      <c r="C40">
+        <v>16.03749998873057</v>
+      </c>
+      <c r="D40">
+        <v>11.8691227109802</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>-9.868653718365</v>
+      </c>
+      <c r="C41">
+        <v>16.2877106578642</v>
+      </c>
+      <c r="D41">
+        <v>11.9943712849958</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>-2</v>
+      </c>
+      <c r="B2">
+        <v>1.825861787335305</v>
+      </c>
+      <c r="C2">
+        <v>-6.806671077812427</v>
+      </c>
+      <c r="D2">
+        <v>-12.40177056121806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>-1.9017</v>
+      </c>
+      <c r="B3">
+        <v>1.701105957023519</v>
+      </c>
+      <c r="C3">
+        <v>-6.619886836599779</v>
+      </c>
+      <c r="D3">
+        <v>-12.00940906311248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>-1.80678</v>
+      </c>
+      <c r="B4">
+        <v>1.572935298252754</v>
+      </c>
+      <c r="C4">
+        <v>-6.412132340085343</v>
+      </c>
+      <c r="D4">
+        <v>-11.58404519600735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>-1.70216</v>
+      </c>
+      <c r="B5">
+        <v>1.448322707389751</v>
+      </c>
+      <c r="C5">
+        <v>-6.189137166220427</v>
+      </c>
+      <c r="D5">
+        <v>-11.14470115870104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>-1.60278</v>
+      </c>
+      <c r="B6">
+        <v>1.365730841221643</v>
+      </c>
+      <c r="C6">
+        <v>-6.023724250766158</v>
+      </c>
+      <c r="D6">
+        <v>-10.82819927267077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>-1.50412</v>
+      </c>
+      <c r="B7">
+        <v>1.243312678713991</v>
+      </c>
+      <c r="C7">
+        <v>-5.747764858319348</v>
+      </c>
+      <c r="D7">
+        <v>-10.3111048625652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>-1.4045</v>
+      </c>
+      <c r="B8">
+        <v>1.107510222112084</v>
+      </c>
+      <c r="C8">
+        <v>-5.431801552616505</v>
+      </c>
+      <c r="D8">
+        <v>-9.731214278113297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>-1.3113</v>
+      </c>
+      <c r="B9">
+        <v>0.975867439102826</v>
+      </c>
+      <c r="C9">
+        <v>-5.133874958304379</v>
+      </c>
+      <c r="D9">
+        <v>-9.190571302627852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>-1.20768</v>
+      </c>
+      <c r="B10">
+        <v>0.8560963416086788</v>
+      </c>
+      <c r="C10">
+        <v>-4.820192024626156</v>
+      </c>
+      <c r="D10">
+        <v>-8.637552438767582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>-1.10768</v>
+      </c>
+      <c r="B11">
+        <v>0.7538864005352911</v>
+      </c>
+      <c r="C11">
+        <v>-4.505821541593776</v>
+      </c>
+      <c r="D11">
+        <v>-8.101493125643183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>-1.00644</v>
+      </c>
+      <c r="B12">
+        <v>0.6730248669084781</v>
+      </c>
+      <c r="C12">
+        <v>-4.226298351661253</v>
+      </c>
+      <c r="D12">
+        <v>-7.63802756516186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>-0.9084199999999996</v>
+      </c>
+      <c r="B13">
+        <v>0.5859983074060573</v>
+      </c>
+      <c r="C13">
+        <v>-3.872353673719187</v>
+      </c>
+      <c r="D13">
+        <v>-7.048110219295165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>-0.8071599999999997</v>
+      </c>
+      <c r="B14">
+        <v>0.4967034079927136</v>
+      </c>
+      <c r="C14">
+        <v>-3.481315708120352</v>
+      </c>
+      <c r="D14">
+        <v>-6.383536472722923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>-0.7073</v>
+      </c>
+      <c r="B15">
+        <v>0.4376366159348818</v>
+      </c>
+      <c r="C15">
+        <v>-3.152827545015948</v>
+      </c>
+      <c r="D15">
+        <v>-5.843523750812122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>-0.6039599999999998</v>
+      </c>
+      <c r="B16">
+        <v>0.3585781804893455</v>
+      </c>
+      <c r="C16">
+        <v>-2.579915586508735</v>
+      </c>
+      <c r="D16">
+        <v>-4.936021628682362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>-0.5</v>
+      </c>
+      <c r="B17">
+        <v>0.3060780577215081</v>
+      </c>
+      <c r="C17">
+        <v>-2.152214051599478</v>
+      </c>
+      <c r="D17">
+        <v>-4.278907792602724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="B18">
+        <v>0.2679202144813856</v>
+      </c>
+      <c r="C18">
+        <v>-1.859249271793185</v>
+      </c>
+      <c r="D18">
+        <v>-3.828815067059754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="B19">
+        <v>0.1131047264058566</v>
+      </c>
+      <c r="C19">
+        <v>-1.049677096007186</v>
+      </c>
+      <c r="D19">
+        <v>-2.548838811893398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="B20">
+        <v>-0.192438768834738</v>
+      </c>
+      <c r="C20">
+        <v>-0.4098092895609853</v>
+      </c>
+      <c r="D20">
+        <v>-1.459514263056823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>-1.865447455684781</v>
+      </c>
+      <c r="C21">
+        <v>1.044489374773924</v>
+      </c>
+      <c r="D21">
+        <v>1.140957822547542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="B22">
+        <v>-0.7859032964110885</v>
+      </c>
+      <c r="C22">
+        <v>2.340158943948913</v>
+      </c>
+      <c r="D22">
+        <v>2.832438095754807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="B23">
+        <v>-0.4154746227031087</v>
+      </c>
+      <c r="C23">
+        <v>3.100084326786827</v>
+      </c>
+      <c r="D23">
+        <v>4.111967443840961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="B24">
+        <v>-0.1795151328077671</v>
+      </c>
+      <c r="C24">
+        <v>3.839830136080233</v>
+      </c>
+      <c r="D24">
+        <v>5.447944593903404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="B25">
+        <v>-0.03028066618642489</v>
+      </c>
+      <c r="C25">
+        <v>4.704125510879178</v>
+      </c>
+      <c r="D25">
+        <v>6.960937054771515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>0.5</v>
+      </c>
+      <c r="B26">
+        <v>0.0187935242003631</v>
+      </c>
+      <c r="C26">
+        <v>5.144466494749021</v>
+      </c>
+      <c r="D26">
+        <v>7.720850978453527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>0.6039599999999998</v>
+      </c>
+      <c r="B27">
+        <v>0.07864188798653277</v>
+      </c>
+      <c r="C27">
+        <v>5.791066555288009</v>
+      </c>
+      <c r="D27">
+        <v>8.753091742161219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>0.7073</v>
+      </c>
+      <c r="B28">
+        <v>0.103006918224471</v>
+      </c>
+      <c r="C28">
+        <v>6.293034879602123</v>
+      </c>
+      <c r="D28">
+        <v>9.475305042923621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>0.8071599999999997</v>
+      </c>
+      <c r="B29">
+        <v>0.1644898733043694</v>
+      </c>
+      <c r="C29">
+        <v>6.843991095399923</v>
+      </c>
+      <c r="D29">
+        <v>10.28730083018302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>0.9084199999999996</v>
+      </c>
+      <c r="B30">
+        <v>0.2391938295069115</v>
+      </c>
+      <c r="C30">
+        <v>7.199855181955678</v>
+      </c>
+      <c r="D30">
+        <v>10.83630898947738</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1.00644</v>
+      </c>
+      <c r="B31">
+        <v>0.3398258448125088</v>
+      </c>
+      <c r="C31">
+        <v>7.587575721920705</v>
+      </c>
+      <c r="D31">
+        <v>11.45372830951035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1.10768</v>
+      </c>
+      <c r="B32">
+        <v>0.4435329246045732</v>
+      </c>
+      <c r="C32">
+        <v>7.948481837073611</v>
+      </c>
+      <c r="D32">
+        <v>12.04536452876244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>1.20768</v>
+      </c>
+      <c r="B33">
+        <v>0.5525203834365633</v>
+      </c>
+      <c r="C33">
+        <v>8.257019609751557</v>
+      </c>
+      <c r="D33">
+        <v>12.55397916350007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>1.3113</v>
+      </c>
+      <c r="B34">
+        <v>0.7050073710326806</v>
+      </c>
+      <c r="C34">
+        <v>8.576157101639426</v>
+      </c>
+      <c r="D34">
+        <v>13.10298732279443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>1.4045</v>
+      </c>
+      <c r="B35">
+        <v>0.9041617710422034</v>
+      </c>
+      <c r="C35">
+        <v>8.897586424707818</v>
+      </c>
+      <c r="D35">
+        <v>13.69067013326011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>1.50412</v>
+      </c>
+      <c r="B36">
+        <v>1.051062420135795</v>
+      </c>
+      <c r="C36">
+        <v>9.1099245835833</v>
+      </c>
+      <c r="D36">
+        <v>14.09431889992978</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>1.60278</v>
+      </c>
+      <c r="B37">
+        <v>1.188623857168754</v>
+      </c>
+      <c r="C37">
+        <v>9.294932655631044</v>
+      </c>
+      <c r="D37">
+        <v>14.45407909949242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1.70216</v>
+      </c>
+      <c r="B38">
+        <v>1.378536447942817</v>
+      </c>
+      <c r="C38">
+        <v>9.527668112013185</v>
+      </c>
+      <c r="D38">
+        <v>14.91857598400498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>1.80678</v>
+      </c>
+      <c r="B39">
+        <v>1.54107884484348</v>
+      </c>
+      <c r="C39">
+        <v>9.717374437980999</v>
+      </c>
+      <c r="D39">
+        <v>15.3080153973554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>1.9017</v>
+      </c>
+      <c r="B40">
+        <v>1.726035350689661</v>
+      </c>
+      <c r="C40">
+        <v>9.91831073673338</v>
+      </c>
+      <c r="D40">
+        <v>15.73435329271225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>1.90769734921384</v>
+      </c>
+      <c r="C41">
+        <v>10.09730275193225</v>
+      </c>
+      <c r="D41">
+        <v>16.12854825576225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>